--- a/WorkBot/main/backend/ordering/Completed Orders/Ithaca Bakery/Ithaca Bakery_Downtown_20250620.xlsx
+++ b/WorkBot/main/backend/ordering/Completed Orders/Ithaca Bakery/Ithaca Bakery_Downtown_20250620.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1598,6 +1598,160 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Firehook - Garlic Thyme</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>27.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Firehook - Multigrain Flax</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>27.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>DV 053115</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DV - Gummi Bears (12 oz)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>DV 057817</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DV - Gummi Bears (8 oz)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>DV 53707</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DV - Gummi Sharks</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>DV 053125</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DV - Sour Neon Gummi Worms</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
